--- a/Archivos Excel/buytickets.xlsx
+++ b/Archivos Excel/buytickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0200DD45-5CEC-40A4-877C-DEBD02B4CED8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C106B75B-3690-4FFD-9251-8A5650ED60D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9465" xr2:uid="{3BFEED54-7E67-41C8-8FD1-8B789D12CEEF}"/>
   </bookViews>
@@ -27,6 +27,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>insert into buysTicket(</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,13 +390,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF404F0D-6CF4-4673-AA3F-CFB2243E7EA1}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2321423</v>
       </c>
@@ -395,8 +415,21 @@
       <c r="D1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G1" t="str">
+        <f>CONCATENATE($L$1,A1,$N$1,B1,$N$1,C1,$M$1)</f>
+        <v>insert into buysTicket(2321423,1,271);</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2321423</v>
       </c>
@@ -406,8 +439,12 @@
       <c r="C2">
         <v>281</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G19" si="0">CONCATENATE($L$1,A2,$N$1,B2,$N$1,C2,$M$1)</f>
+        <v>insert into buysTicket(2321423,2,281);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2321423</v>
       </c>
@@ -417,8 +454,12 @@
       <c r="C3">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into buysTicket(2321423,3,160);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2321423</v>
       </c>
@@ -428,13 +469,17 @@
       <c r="C4">
         <v>170</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into buysTicket(2321423,4,170);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4737492</v>
       </c>
@@ -447,8 +492,12 @@
       <c r="D8">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into buysTicket(4737492,1,171);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1238471</v>
       </c>
@@ -461,13 +510,17 @@
       <c r="D10">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into buysTicket(1238471,1,161);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4917493</v>
       </c>
@@ -480,8 +533,12 @@
       <c r="D14">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into buysTicket(4917493,1,184);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3283295</v>
       </c>
@@ -494,8 +551,12 @@
       <c r="D16">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into buysTicket(3283295,1,162);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2374827</v>
       </c>
@@ -508,8 +569,12 @@
       <c r="D18">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into buysTicket(2374827,1,282);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2321423</v>
       </c>

--- a/Archivos Excel/buytickets.xlsx
+++ b/Archivos Excel/buytickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C106B75B-3690-4FFD-9251-8A5650ED60D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1638BF1-CB7F-4B1A-835E-0488269FA643}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9465" xr2:uid="{3BFEED54-7E67-41C8-8FD1-8B789D12CEEF}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,15 +31,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>insert into buysTicket(</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>);</t>
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>insert into buysTicket values(</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2016-03-20'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2015-02-04'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2018-03-01'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2013-12-12'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2009-07-29'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2010-11-20'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2007-08-07'</t>
   </si>
 </sst>
 </file>
@@ -74,8 +96,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,19 +414,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF404F0D-6CF4-4673-AA3F-CFB2243E7EA1}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2321423</v>
       </c>
@@ -412,24 +436,27 @@
       <c r="C1">
         <v>271</v>
       </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="G1" t="str">
-        <f>CONCATENATE($L$1,A1,$N$1,B1,$N$1,C1,$M$1)</f>
-        <v>insert into buysTicket(2321423,1,271);</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <f>CONCATENATE($M$1,A1,$O$1,B1,$O$1,C1,$O$1,D1,$N$1)</f>
+        <v>insert into buysTicket values(2321423,1,271, '2016-03-20');</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2321423</v>
       </c>
@@ -439,12 +466,15 @@
       <c r="C2">
         <v>281</v>
       </c>
-      <c r="G2" t="str">
-        <f t="shared" ref="G2:G19" si="0">CONCATENATE($L$1,A2,$N$1,B2,$N$1,C2,$M$1)</f>
-        <v>insert into buysTicket(2321423,2,281);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f t="shared" ref="H2:H4" si="0">CONCATENATE($M$1,A2,$O$1,B2,$O$1,C2,$O$1,D2,$N$1)</f>
+        <v>insert into buysTicket values(2321423,2,281, '2016-03-20');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2321423</v>
       </c>
@@ -454,12 +484,15 @@
       <c r="C3">
         <v>160</v>
       </c>
-      <c r="G3" t="str">
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into buysTicket(2321423,3,160);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>insert into buysTicket values(2321423,3,160, '2016-03-20');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2321423</v>
       </c>
@@ -469,17 +502,20 @@
       <c r="C4">
         <v>170</v>
       </c>
-      <c r="G4" t="str">
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into buysTicket(2321423,4,170);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D6">
+        <v>insert into buysTicket values(2321423,4,170, '2016-03-20');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E6">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4737492</v>
       </c>
@@ -489,15 +525,18 @@
       <c r="C8">
         <v>171</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into buysTicket(4737492,1,171);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H8" s="2" t="str">
+        <f t="shared" ref="H8" si="1">CONCATENATE($M$1,A8,$O$1,B8,$O$1,C8,$O$1,D8,$N$1)</f>
+        <v>insert into buysTicket values(4737492,1,171, '2015-02-04');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1238471</v>
       </c>
@@ -507,20 +546,23 @@
       <c r="C10">
         <v>161</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
         <v>4</v>
       </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into buysTicket(1238471,1,161);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D12">
+      <c r="H10" s="2" t="str">
+        <f t="shared" ref="H10" si="2">CONCATENATE($M$1,A10,$O$1,B10,$O$1,C10,$O$1,D10,$N$1)</f>
+        <v>insert into buysTicket values(1238471,1,161, '2018-03-01');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E12">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4917493</v>
       </c>
@@ -530,65 +572,118 @@
       <c r="C14">
         <v>184</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into buysTicket(4917493,1,184);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="str">
+        <f t="shared" ref="H14" si="3">CONCATENATE($M$1,A14,$O$1,B14,$O$1,C14,$O$1,D14,$N$1)</f>
+        <v>insert into buysTicket values(4917493,1,184, '2013-12-12');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>3283295</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>162</v>
       </c>
-      <c r="D16">
+      <c r="D17" t="s">
         <v>7</v>
       </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into buysTicket(3283295,1,162);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2" t="str">
+        <f>CONCATENATE($M$1,A17,$O$1,B17,$O$1,C17,$O$1,D17,$N$1)</f>
+        <v>insert into buysTicket values(3283295,1,162, '2009-07-29');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>3283295</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>470</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2" t="str">
+        <f>CONCATENATE($M$1,A18,$O$1,B18,$O$1,C18,$O$1,D18,$N$1)</f>
+        <v>insert into buysTicket values(3283295,1,470, '2009-07-29');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>2374827</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>282</v>
       </c>
-      <c r="D18">
+      <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into buysTicket(2374827,1,282);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2" t="str">
+        <f t="shared" ref="H20:H23" si="4">CONCATENATE($M$1,A20,$O$1,B20,$O$1,C20,$O$1,D20,$N$1)</f>
+        <v>insert into buysTicket values(2374827,1,282, '2010-11-20');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2374827</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>471</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into buysTicket values(2374827,1,471, '2010-11-20');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>2321423</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>173</v>
       </c>
-      <c r="D20">
+      <c r="D23" t="s">
         <v>9</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="H23" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into buysTicket values(2321423,1,173, '2007-08-07');</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Archivos Excel/buytickets.xlsx
+++ b/Archivos Excel/buytickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656725D0-3C98-4DB8-8851-072C57288FAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEFDF08-82DD-4ECE-A91C-A7DEDBBAD44F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9465" xr2:uid="{3BFEED54-7E67-41C8-8FD1-8B789D12CEEF}"/>
   </bookViews>
@@ -260,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -275,6 +275,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF404F0D-6CF4-4673-AA3F-CFB2243E7EA1}">
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:H82"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72:E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,6 +1270,7 @@
       <c r="D48" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="E48" s="8"/>
       <c r="H48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(03421987,1,520, '2017-10-15');</v>
@@ -1287,6 +1289,7 @@
       <c r="D49" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="E49" s="8"/>
       <c r="H49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(03421987,2,521, '2017-10-15');</v>
@@ -1305,6 +1308,7 @@
       <c r="D50" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="E50" s="8"/>
       <c r="H50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(03421987,3,522, '2017-10-15');</v>
@@ -1323,6 +1327,7 @@
       <c r="D51" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="E51" s="8"/>
       <c r="H51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(03421987,4,523, '2017-10-15');</v>
@@ -1341,6 +1346,7 @@
       <c r="D52" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="E52" s="8"/>
       <c r="H52" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(03421987,5,524, '2017-10-15');</v>
@@ -1359,6 +1365,7 @@
       <c r="D53" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="E53" s="8"/>
       <c r="H53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(03421987,1,512,'2016-07-30');</v>
@@ -1377,6 +1384,7 @@
       <c r="D54" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="E54" s="8"/>
       <c r="H54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(04309871,1,511,'2018-02-23');</v>
@@ -1395,6 +1403,7 @@
       <c r="D55" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E55" s="8"/>
       <c r="H55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(04309871,1,304,'2018-01-17');</v>
@@ -1413,6 +1422,7 @@
       <c r="D56" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="E56" s="8"/>
       <c r="H56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(04309871,1,445,'2017-02-20');</v>
@@ -1575,6 +1585,7 @@
       <c r="D65" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="E65" s="8"/>
       <c r="H65" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(04782107,1,938,'2018-01-04');</v>
@@ -1593,6 +1604,7 @@
       <c r="D66" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="E66" s="8"/>
       <c r="H66" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(04782107,1,303,'2019-03-12');</v>
@@ -1611,6 +1623,7 @@
       <c r="D67" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="E67" s="8"/>
       <c r="H67" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(04782107,1,444,'2018-03-18');</v>
@@ -1629,6 +1642,7 @@
       <c r="D68" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="E68" s="8"/>
       <c r="H68" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(04917493,1,184,'2016-05-15');</v>
@@ -1647,6 +1661,7 @@
       <c r="D69" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E69" s="8"/>
       <c r="H69" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(04917493,1,933,'2016-10-15');</v>
@@ -1665,6 +1680,7 @@
       <c r="D70" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="E70" s="8"/>
       <c r="H70" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(04917493,1,518,'2015-02-06' );</v>
@@ -1683,6 +1699,7 @@
       <c r="D71" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E71" s="8"/>
       <c r="H71" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(04917493,1,439,'2018-09-23');</v>
@@ -1701,6 +1718,7 @@
       <c r="D72" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="E72" s="8"/>
       <c r="H72" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(05838743,1,929,'2018-04-02');</v>
@@ -1719,6 +1737,7 @@
       <c r="D73" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="E73" s="8"/>
       <c r="H73" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(05838743,1,514,'2017-09-12');</v>
@@ -1737,6 +1756,7 @@
       <c r="D74" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="E74" s="8"/>
       <c r="H74" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(05838743,1,306,'2019-05-20');</v>
@@ -1755,6 +1775,7 @@
       <c r="D75" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E75" s="8"/>
       <c r="H75" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(09043278,1,937,'2018-09-05');</v>
@@ -1773,6 +1794,7 @@
       <c r="D76" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="E76" s="8"/>
       <c r="H76" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(09043278,1,302,'2017-07-11');</v>
@@ -1791,6 +1813,7 @@
       <c r="D77" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="E77" s="8"/>
       <c r="H77" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into buysTicket values(09043278,1,443,'2019-05-02');</v>
